--- a/Data/UN Population Data/Malta.xlsx
+++ b/Data/UN Population Data/Malta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh1604217\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\modelling\Data\UN Population Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Please note the following:</t>
   </si>
@@ -159,23 +159,58 @@
   </si>
   <si>
     <t>Crude death rate (deaths per 1,000 population)</t>
+  </si>
+  <si>
+    <t>0-19</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>0-14</t>
+  </si>
+  <si>
+    <t>15+</t>
+  </si>
+  <si>
+    <t>0-39</t>
+  </si>
+  <si>
+    <t>40+</t>
+  </si>
+  <si>
+    <t>Baseline Population</t>
+  </si>
+  <si>
+    <t>Baseline Seronegative</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Immune</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="###\ ###\ ###\ ###\ ##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -202,10 +237,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -226,21 +262,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,39 +611,40 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="5.140625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="24" width="13" customWidth="1"/>
     <col min="25" max="25" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="30">
       <c r="A2" s="2" t="s">
@@ -1051,82 +1091,187 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:25" ht="45">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>12.8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>9.4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>7.6</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>7.7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>8.1</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="F17" s="15">
+        <f>SUM(D7:F7)*1000</f>
+        <v>61634</v>
+      </c>
+      <c r="G17" s="15">
+        <f>SUM(G7:X7)*1000</f>
+        <v>365982</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="F19" s="15">
+        <f>SUM(D7:G7)*1000</f>
+        <v>85704.000000000015</v>
+      </c>
+      <c r="G19" s="15">
+        <f>SUM(H7:X7)*1000</f>
+        <v>341912</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="F21" s="15">
+        <f>SUM(D7:K7)*1000</f>
+        <v>208597</v>
+      </c>
+      <c r="G21" s="15">
+        <f>SUM(L7:X7)*1000</f>
+        <v>219019.00000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="30">
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="16">
+        <f>F21</f>
+        <v>208597</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25" s="16">
+        <f>ROUND(F25*G25,0)</f>
+        <v>10430</v>
+      </c>
+      <c r="I25" s="15">
+        <f>ROUND(F25*(1-G25),0)</f>
+        <v>198167</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="16">
+        <f>G21</f>
+        <v>219019.00000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.31</v>
+      </c>
+      <c r="H26" s="16">
+        <f>ROUND(F26*G26,0)</f>
+        <v>67896</v>
+      </c>
+      <c r="I26" s="15">
+        <f>ROUND(F26*(1-G26),0)</f>
+        <v>151123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Data/UN Population Data/Malta.xlsx
+++ b/Data/UN Population Data/Malta.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Please note the following:</t>
   </si>
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -270,13 +270,20 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -602,7 +609,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,33 +625,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="30">
       <c r="A2" s="2" t="s">
@@ -1091,12 +1098,12 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
@@ -1129,12 +1136,12 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:25" ht="45">
       <c r="A14" s="9" t="s">
@@ -1173,17 +1180,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="5:9">
-      <c r="F17" s="15">
+    <row r="17" spans="5:16">
+      <c r="F17" s="12">
         <f>SUM(D7:F7)*1000</f>
         <v>61634</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <f>SUM(G7:X7)*1000</f>
         <v>365982</v>
       </c>
     </row>
-    <row r="18" spans="5:9">
+    <row r="18" spans="5:16">
       <c r="F18" t="s">
         <v>46</v>
       </c>
@@ -1191,17 +1198,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
-      <c r="F19" s="15">
+    <row r="19" spans="5:16">
+      <c r="F19" s="12">
         <f>SUM(D7:G7)*1000</f>
         <v>85704.000000000015</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <f>SUM(H7:X7)*1000</f>
         <v>341912</v>
       </c>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="5:16">
       <c r="F20" t="s">
         <v>50</v>
       </c>
@@ -1209,17 +1216,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="5:9">
-      <c r="F21" s="15">
+    <row r="21" spans="5:16">
+      <c r="F21" s="12">
         <f>SUM(D7:K7)*1000</f>
         <v>208597</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <f>SUM(L7:X7)*1000</f>
         <v>219019.00000000003</v>
       </c>
     </row>
-    <row r="24" spans="5:9" ht="30">
+    <row r="24" spans="5:16" ht="30">
       <c r="F24" s="5" t="s">
         <v>52</v>
       </c>
@@ -1232,45 +1239,92 @@
       <c r="I24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="5:9">
+      <c r="L24" s="17"/>
+      <c r="M24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16">
       <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="13">
         <f>F21</f>
         <v>208597</v>
       </c>
       <c r="G25">
         <v>0.05</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="13">
         <f>ROUND(F25*G25,0)</f>
         <v>10430</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="12">
         <f>ROUND(F25*(1-G25),0)</f>
         <v>198167</v>
       </c>
-    </row>
-    <row r="26" spans="5:9">
+      <c r="L25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="13">
+        <v>208597</v>
+      </c>
+      <c r="N25" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O25" s="13">
+        <f>M25*N25</f>
+        <v>20025.312000000002</v>
+      </c>
+      <c r="P25" s="13">
+        <f>M25-O25</f>
+        <v>188571.68799999999</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16">
       <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <f>G21</f>
         <v>219019.00000000003</v>
       </c>
       <c r="G26">
-        <v>0.31</v>
-      </c>
-      <c r="H26" s="16">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H26" s="13">
         <f>ROUND(F26*G26,0)</f>
-        <v>67896</v>
-      </c>
-      <c r="I26" s="15">
+        <v>6790</v>
+      </c>
+      <c r="I26" s="12">
         <f>ROUND(F26*(1-G26),0)</f>
-        <v>151123</v>
+        <v>212229</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="13">
+        <v>219019.00000000003</v>
+      </c>
+      <c r="N26" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O26" s="13">
+        <f>M26*N26</f>
+        <v>6789.5890000000009</v>
+      </c>
+      <c r="P26" s="13">
+        <f>M26-O26</f>
+        <v>212229.41100000002</v>
       </c>
     </row>
   </sheetData>
